--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aw\Documents\WashU\2022-2023\Spring Semester\Math 401\OE Match Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6450F1D-3E5A-4629-8F5A-FED313C1B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A774ABBE-EACC-45C9-B079-913B23B3285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17550" activeTab="3" xr2:uid="{DDBFB9A4-85C8-44F6-BF8A-732B643FC57D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17550" xr2:uid="{DDBFB9A4-85C8-44F6-BF8A-732B643FC57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Modified" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>BLG</t>
+  </si>
+  <si>
+    <t>SKT</t>
+  </si>
+  <si>
+    <t>DWG</t>
+  </si>
+  <si>
+    <t>DK</t>
   </si>
 </sst>
 </file>
@@ -525,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FD9E1C-E76F-4CA7-89EF-94C8C55F08D9}">
   <dimension ref="A1:BG40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5567,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA9847-85E0-4FEC-9D58-2208365F8D12}">
   <dimension ref="A1:BG40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10606,7 +10615,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10638,6 +10647,9 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10649,6 +10661,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -10660,6 +10675,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -10671,6 +10689,9 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -10682,6 +10703,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -10693,6 +10717,9 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10704,6 +10731,9 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -10715,6 +10745,9 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -10726,6 +10759,9 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -10737,6 +10773,9 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -10748,6 +10787,9 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -10759,6 +10801,9 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -10770,6 +10815,9 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -10781,6 +10829,9 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -10792,8 +10843,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -10803,8 +10857,11 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -10814,8 +10871,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -10825,8 +10885,11 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -10836,8 +10899,11 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -10847,8 +10913,11 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -10858,8 +10927,11 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -10869,8 +10941,11 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -10880,8 +10955,11 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -10891,8 +10969,11 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -10902,8 +10983,11 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -10913,8 +10997,11 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -10924,8 +11011,11 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -10935,8 +11025,11 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -10946,8 +11039,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -10957,8 +11053,11 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -10968,8 +11067,11 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -10978,6 +11080,9 @@
       </c>
       <c r="C33" t="s">
         <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -10989,7 +11094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D740DF2-6DCA-49AA-AE0E-CB3DE986C702}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
